--- a/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2013 Promos  (PDP13).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2013 Promos  (PDP13).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,133 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Primordial Hydra</t>
+          <t>('Primordial Hydra', ['{X}{G}{G}', 'Creature — Hydra', 'Primordial Hydra enters the battlefield with X +1/+1 counters on it.', 'At the beginning of your upkeep, double the number of +1/+1 counters on Primordial Hydra.', 'Primordial Hydra has trample as long as it has ten or more +1/+1 counters on it.', '0/0'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{X}{G}{G}</t>
+          <t>('Serra Avatar', ['{4}{W}{W}{W}', 'Creature — Avatar', 'Serra Avatar’s power and toughness are each equal to your life total.', 'When Serra Avatar is put into a graveyard from anywhere, shuffle it into its owner’s library.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Hydra</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Primordial Hydra enters the battlefield with X +1/+1 counters on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, double the number of +1/+1 counters on Primordial Hydra.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Primordial Hydra has trample as long as it has ten or more +1/+1 counters on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Serra Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{4}{W}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Creature — Avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Serra Avatar’s power and toughness are each equal to your life total.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>When Serra Avatar is put into a graveyard from anywhere, shuffle it into its owner’s library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Vampire Nocturnus</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Play with the top card of your library revealed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>As long as the top card of your library is black, Vampire Nocturnus and other Vampire creatures you control get +2/+1 and have flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3/3</t>
+          <t>('Vampire Nocturnus', ['{1}{B}{B}{B}', 'Creature — Vampire', 'Play with the top card of your library revealed.', 'As long as the top card of your library is black, Vampire Nocturnus and other Vampire creatures you control get +2/+1 and have flying.', '3/3'])</t>
         </is>
       </c>
     </row>
